--- a/Auto Finan/报销信息.xlsx
+++ b/Auto Finan/报销信息.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FH\source\repos\Auto Finan\Auto Finan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49AE7E0E-18FE-4F31-ADCF-B8D3445F67B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B96FAE3-6087-4FFF-AC52-D084895FAFF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15320" yWindow="2260" windowWidth="19200" windowHeight="11260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="82">
   <si>
     <t>序号</t>
   </si>
@@ -758,32 +758,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD5"/>
+  <dimension ref="A1:AF5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="3" width="22.90625" customWidth="1"/>
-    <col min="6" max="7" width="21.7265625" customWidth="1"/>
-    <col min="8" max="10" width="20.26953125" customWidth="1"/>
-    <col min="13" max="14" width="12.36328125" customWidth="1"/>
-    <col min="15" max="15" width="10.90625" customWidth="1"/>
-    <col min="18" max="18" width="13.08984375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.90625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.08984375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="21.7265625" customWidth="1"/>
+    <col min="9" max="12" width="20.26953125" customWidth="1"/>
+    <col min="15" max="16" width="12.36328125" customWidth="1"/>
+    <col min="17" max="17" width="10.90625" customWidth="1"/>
+    <col min="20" max="20" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.08984375" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.90625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.08984375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.54296875" style="6" customWidth="1"/>
-    <col min="27" max="27" width="11.90625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="16.81640625" customWidth="1"/>
+    <col min="25" max="25" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.54296875" style="6" customWidth="1"/>
+    <col min="29" max="29" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="16.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -802,80 +802,86 @@
       <c r="F1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="J1" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="K1" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="Z1" s="7" t="s">
+      <c r="AB1" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AC1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AD1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AE1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AF1" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -894,184 +900,190 @@
       <c r="F2" t="s">
         <v>7</v>
       </c>
-      <c r="G2" t="s">
-        <v>7</v>
+      <c r="G2">
+        <v>20</v>
       </c>
       <c r="H2" t="s">
         <v>7</v>
       </c>
       <c r="I2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2">
+        <v>10</v>
+      </c>
+      <c r="K2" t="s">
         <v>81</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>12</v>
       </c>
-      <c r="K2">
+      <c r="M2">
         <v>2</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>15</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>18</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>19</v>
       </c>
-      <c r="O2" t="s">
-        <v>7</v>
-      </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
+        <v>7</v>
+      </c>
+      <c r="R2" t="s">
         <v>42</v>
       </c>
-      <c r="Q2">
+      <c r="S2">
         <v>100</v>
       </c>
-      <c r="R2" t="s">
-        <v>7</v>
-      </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
+        <v>7</v>
+      </c>
+      <c r="U2" t="s">
         <v>25</v>
       </c>
-      <c r="T2" s="4">
+      <c r="V2" s="4">
         <v>5130008</v>
       </c>
-      <c r="U2" t="s">
+      <c r="W2" t="s">
         <v>27</v>
       </c>
-      <c r="V2">
+      <c r="X2">
         <v>50</v>
       </c>
-      <c r="W2" t="s">
+      <c r="Y2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="T3" s="4">
+      <c r="V3" s="4">
         <v>202422090507</v>
       </c>
-      <c r="U3" t="s">
+      <c r="W3" t="s">
         <v>32</v>
       </c>
-      <c r="V3">
+      <c r="X3">
         <v>50</v>
       </c>
-      <c r="W3" t="s">
-        <v>7</v>
-      </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z3" t="s">
         <v>25</v>
       </c>
-      <c r="Y3" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z3" s="6" t="s">
+      <c r="AA3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB3" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="AA3" s="5" t="s">
+      <c r="AC3" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AD3" t="s">
         <v>38</v>
       </c>
-      <c r="AC3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="G4" t="s">
-        <v>7</v>
-      </c>
       <c r="H4" t="s">
         <v>7</v>
       </c>
-      <c r="J4" t="s">
+      <c r="I4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L4" t="s">
         <v>12</v>
       </c>
-      <c r="K4">
+      <c r="M4">
         <v>1</v>
       </c>
-      <c r="L4" t="s">
+      <c r="N4" t="s">
         <v>40</v>
       </c>
-      <c r="M4" t="s">
+      <c r="O4" t="s">
         <v>41</v>
       </c>
-      <c r="N4" t="s">
+      <c r="P4" t="s">
         <v>19</v>
       </c>
-      <c r="O4" t="s">
-        <v>7</v>
-      </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
+        <v>7</v>
+      </c>
+      <c r="R4" t="s">
         <v>42</v>
       </c>
-      <c r="Q4">
+      <c r="S4">
         <v>200</v>
       </c>
-      <c r="R4" t="s">
-        <v>7</v>
-      </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
+        <v>7</v>
+      </c>
+      <c r="U4" t="s">
         <v>25</v>
       </c>
-      <c r="T4" s="4">
+      <c r="V4" s="4">
         <v>5130008</v>
       </c>
-      <c r="U4" t="s">
+      <c r="W4" t="s">
         <v>27</v>
       </c>
-      <c r="V4">
+      <c r="X4">
         <v>100</v>
       </c>
-      <c r="W4" t="s">
+      <c r="Y4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
-      <c r="T5" s="4">
+      <c r="V5" s="4">
         <v>202422090507</v>
       </c>
-      <c r="U5" t="s">
+      <c r="W5" t="s">
         <v>32</v>
       </c>
-      <c r="V5">
+      <c r="X5">
         <v>100</v>
       </c>
-      <c r="W5" t="s">
-        <v>7</v>
-      </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z5" t="s">
         <v>25</v>
       </c>
-      <c r="Y5" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z5" s="6" t="s">
+      <c r="AA5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB5" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AC5" t="s">
         <v>36</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AD5" t="s">
         <v>38</v>
       </c>
-      <c r="AC5" t="s">
-        <v>7</v>
-      </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF5" t="s">
         <v>7</v>
       </c>
     </row>

--- a/Auto Finan/报销信息.xlsx
+++ b/Auto Finan/报销信息.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FH\source\repos\Auto Finan\Auto Finan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B96FAE3-6087-4FFF-AC52-D084895FAFF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82D38DD0-1C78-4AAB-9E44-ABBA1C0391D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15320" yWindow="2260" windowWidth="19200" windowHeight="11260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2020" yWindow="2010" windowWidth="19200" windowHeight="11260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BaoXiao_sheet" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="82">
   <si>
     <t>序号</t>
   </si>
@@ -758,10 +758,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF5"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AA5" sqref="AA5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -774,16 +774,18 @@
     <col min="20" max="20" width="13.08984375" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="11.90625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="14.08984375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.90625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13.08984375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.54296875" style="6" customWidth="1"/>
-    <col min="29" max="29" width="11.90625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="16.81640625" customWidth="1"/>
+    <col min="23" max="23" width="14.08984375" customWidth="1"/>
+    <col min="24" max="24" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.7265625" customWidth="1"/>
+    <col min="28" max="28" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.54296875" style="6" customWidth="1"/>
+    <col min="31" max="31" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="16.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -851,37 +853,43 @@
         <v>29</v>
       </c>
       <c r="W1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="X1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AC1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="AB1" s="7" t="s">
+      <c r="AD1" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AE1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AF1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AG1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AH1" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -901,7 +909,7 @@
         <v>7</v>
       </c>
       <c r="G2">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H2" t="s">
         <v>7</v>
@@ -948,55 +956,67 @@
       <c r="V2" s="4">
         <v>5130008</v>
       </c>
-      <c r="W2" t="s">
+      <c r="W2" s="4">
+        <v>3</v>
+      </c>
+      <c r="X2" t="s">
         <v>27</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>50</v>
       </c>
-      <c r="Y2" t="s">
-        <v>7</v>
+      <c r="Z2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA2">
+        <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="V3" s="4">
         <v>202422090507</v>
       </c>
-      <c r="W3" t="s">
+      <c r="W3" s="4">
+        <v>3</v>
+      </c>
+      <c r="X3" t="s">
         <v>32</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>50</v>
       </c>
-      <c r="Y3" t="s">
-        <v>7</v>
-      </c>
       <c r="Z3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA3">
+        <v>3</v>
+      </c>
+      <c r="AB3" t="s">
         <v>25</v>
       </c>
-      <c r="AA3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB3" s="6" t="s">
+      <c r="AC3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD3" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="AC3" s="5" t="s">
+      <c r="AE3" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AF3" t="s">
         <v>38</v>
       </c>
-      <c r="AE3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AF3" t="s">
+      <c r="AG3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1039,51 +1059,63 @@
       <c r="V4" s="4">
         <v>5130008</v>
       </c>
-      <c r="W4" t="s">
+      <c r="W4" s="4">
+        <v>3</v>
+      </c>
+      <c r="X4" t="s">
         <v>27</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>100</v>
       </c>
-      <c r="Y4" t="s">
-        <v>7</v>
+      <c r="Z4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA4">
+        <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="V5" s="4">
         <v>202422090507</v>
       </c>
-      <c r="W5" t="s">
+      <c r="W5" s="4">
+        <v>3</v>
+      </c>
+      <c r="X5" t="s">
         <v>32</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>100</v>
       </c>
-      <c r="Y5" t="s">
-        <v>7</v>
-      </c>
       <c r="Z5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA5">
+        <v>3</v>
+      </c>
+      <c r="AB5" t="s">
         <v>25</v>
       </c>
-      <c r="AA5" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB5" s="6" t="s">
+      <c r="AC5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD5" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AE5" t="s">
         <v>36</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AF5" t="s">
         <v>38</v>
       </c>
-      <c r="AE5" t="s">
-        <v>7</v>
-      </c>
-      <c r="AF5" t="s">
+      <c r="AG5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH5" t="s">
         <v>7</v>
       </c>
     </row>

--- a/Auto Finan/报销信息.xlsx
+++ b/Auto Finan/报销信息.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FH\source\repos\Auto Finan\Auto Finan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82D38DD0-1C78-4AAB-9E44-ABBA1C0391D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2793184E-2666-4DB8-A21E-99B81D9BC9B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2020" yWindow="2010" windowWidth="19200" windowHeight="11260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-40" yWindow="2140" windowWidth="19200" windowHeight="11260" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BaoXiao_sheet" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="82">
   <si>
     <t>序号</t>
   </si>
@@ -760,7 +760,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="AA5" sqref="AA5"/>
     </sheetView>
   </sheetViews>
@@ -1128,41 +1128,41 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AP4"/>
+  <dimension ref="A1:AR4"/>
   <sheetViews>
-    <sheetView topLeftCell="AG1" workbookViewId="0">
-      <selection activeCell="AP1" sqref="AP1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.54296875" customWidth="1"/>
-    <col min="7" max="7" width="16.36328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.6328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.6328125" customWidth="1"/>
-    <col min="10" max="10" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.08984375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.08984375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.08984375" customWidth="1"/>
-    <col min="16" max="16" width="11.90625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="11.90625" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="11.36328125" style="6" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="11.90625" bestFit="1" customWidth="1"/>
-    <col min="32" max="33" width="14.08984375" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.90625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="13.08984375" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="14.08984375" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="11.90625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="13.54296875" style="4" bestFit="1" customWidth="1"/>
-    <col min="39" max="40" width="14.08984375" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="11.90625" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.54296875" customWidth="1"/>
+    <col min="8" max="8" width="16.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.6328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="18.6328125" customWidth="1"/>
+    <col min="12" max="12" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.08984375" customWidth="1"/>
+    <col min="18" max="18" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="11.36328125" style="6" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="34" max="35" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="13.54296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="41" max="42" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="13.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1175,122 +1175,128 @@
       <c r="D1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="J1" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="K1" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="Y1" s="7" t="s">
+      <c r="AA1" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="Z1" s="7" t="s">
+      <c r="AB1" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AC1" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AD1" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AE1" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AF1" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AG1" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AH1" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AI1" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="AH1" s="3" t="s">
+      <c r="AJ1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="AI1" s="3" t="s">
+      <c r="AK1" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="AJ1" s="3" t="s">
+      <c r="AL1" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="AK1" s="3" t="s">
+      <c r="AM1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AL1" s="10" t="s">
+      <c r="AN1" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="AM1" s="3" t="s">
+      <c r="AO1" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="AN1" s="3" t="s">
+      <c r="AP1" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="AO1" s="3" t="s">
+      <c r="AQ1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="AP1" s="3" t="s">
+      <c r="AR1" s="3" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1303,145 +1309,151 @@
       <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="9">
+      <c r="E2">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="9">
+        <v>20</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2">
+        <v>10</v>
+      </c>
+      <c r="K2" t="s">
+        <v>58</v>
+      </c>
+      <c r="L2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2">
+        <v>2</v>
+      </c>
+      <c r="N2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q2" s="9">
+        <v>20</v>
+      </c>
+      <c r="R2">
+        <v>1</v>
+      </c>
+      <c r="S2" t="s">
+        <v>48</v>
+      </c>
+      <c r="T2" t="s">
+        <v>49</v>
+      </c>
+      <c r="U2" t="s">
         <v>50</v>
       </c>
-      <c r="G2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" t="s">
-        <v>58</v>
-      </c>
-      <c r="J2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2">
-        <v>2</v>
-      </c>
-      <c r="L2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N2" t="s">
-        <v>7</v>
-      </c>
-      <c r="O2" s="9">
-        <v>20</v>
-      </c>
-      <c r="P2">
-        <v>1</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>48</v>
-      </c>
-      <c r="R2" t="s">
-        <v>49</v>
-      </c>
-      <c r="S2" t="s">
-        <v>50</v>
-      </c>
-      <c r="T2" t="s">
+      <c r="V2" t="s">
         <v>51</v>
       </c>
-      <c r="AJ2" s="3"/>
+      <c r="AL2" s="3"/>
     </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="S3" t="s">
         <v>52</v>
       </c>
-      <c r="R3" t="s">
+      <c r="T3" t="s">
         <v>53</v>
       </c>
-      <c r="S3" t="s">
+      <c r="U3" t="s">
         <v>50</v>
       </c>
-      <c r="T3" t="s">
+      <c r="V3" t="s">
         <v>54</v>
       </c>
-      <c r="AJ3" s="3"/>
+      <c r="AL3" s="3"/>
     </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="S4" t="s">
         <v>55</v>
       </c>
-      <c r="R4" t="s">
+      <c r="T4" t="s">
         <v>53</v>
       </c>
-      <c r="S4" t="s">
+      <c r="U4" t="s">
         <v>50</v>
       </c>
-      <c r="T4" t="s">
+      <c r="V4" t="s">
         <v>56</v>
       </c>
-      <c r="U4">
+      <c r="W4">
         <v>1</v>
       </c>
-      <c r="V4">
+      <c r="X4">
         <v>1</v>
       </c>
-      <c r="W4" t="s">
+      <c r="Y4" t="s">
         <v>71</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Z4" t="s">
         <v>71</v>
       </c>
-      <c r="Y4" s="6" t="s">
+      <c r="AA4" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="Z4" s="6" t="s">
+      <c r="AB4" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="AA4">
+      <c r="AC4">
         <v>1000</v>
       </c>
-      <c r="AE4">
+      <c r="AG4">
         <v>500</v>
       </c>
-      <c r="AF4" t="s">
+      <c r="AH4" t="s">
         <v>74</v>
       </c>
-      <c r="AG4" t="s">
+      <c r="AI4" t="s">
         <v>74</v>
       </c>
-      <c r="AH4">
+      <c r="AJ4">
         <v>1</v>
       </c>
-      <c r="AI4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AK4">
+      <c r="AK4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AM4">
         <v>1</v>
       </c>
-      <c r="AL4" s="4">
+      <c r="AN4" s="4">
         <v>202422090507</v>
       </c>
-      <c r="AM4" t="s">
+      <c r="AO4" t="s">
         <v>32</v>
       </c>
-      <c r="AN4">
+      <c r="AP4">
         <v>1500</v>
       </c>
-      <c r="AO4">
+      <c r="AQ4">
         <v>1</v>
       </c>
-      <c r="AP4" t="s">
+      <c r="AR4" t="s">
         <v>7</v>
       </c>
     </row>

--- a/Auto Finan/报销信息.xlsx
+++ b/Auto Finan/报销信息.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FH\source\repos\Auto Finan\Auto Finan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2793184E-2666-4DB8-A21E-99B81D9BC9B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9AE6CE8-6717-4DFE-8C3A-1931FF5B1F34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-40" yWindow="2140" windowWidth="19200" windowHeight="11260" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="82">
   <si>
     <t>序号</t>
   </si>
@@ -1128,10 +1128,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AR4"/>
+  <dimension ref="A1:AS4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
+      <selection activeCell="AO8" sqref="AO8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1157,12 +1157,13 @@
     <col min="38" max="38" width="14.08984375" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="11.90625" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="13.54296875" style="4" bestFit="1" customWidth="1"/>
-    <col min="41" max="42" width="14.08984375" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="11.90625" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="13.54296875" style="4" customWidth="1"/>
+    <col min="42" max="43" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="13.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1283,20 +1284,23 @@
       <c r="AN1" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="AO1" s="3" t="s">
+      <c r="AO1" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="AP1" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="AP1" s="3" t="s">
+      <c r="AQ1" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="AQ1" s="3" t="s">
+      <c r="AR1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="AR1" s="3" t="s">
+      <c r="AS1" s="3" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1365,7 +1369,7 @@
       </c>
       <c r="AL2" s="3"/>
     </row>
-    <row r="3" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1383,7 +1387,7 @@
       </c>
       <c r="AL3" s="3"/>
     </row>
-    <row r="4" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1444,16 +1448,19 @@
       <c r="AN4" s="4">
         <v>202422090507</v>
       </c>
-      <c r="AO4" t="s">
+      <c r="AO4" s="4">
+        <v>5</v>
+      </c>
+      <c r="AP4" t="s">
         <v>32</v>
       </c>
-      <c r="AP4">
+      <c r="AQ4">
         <v>1500</v>
       </c>
-      <c r="AQ4">
+      <c r="AR4">
         <v>1</v>
       </c>
-      <c r="AR4" t="s">
+      <c r="AS4" t="s">
         <v>7</v>
       </c>
     </row>

--- a/Auto Finan/报销信息.xlsx
+++ b/Auto Finan/报销信息.xlsx
@@ -8,20 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FH\source\repos\Auto Finan\Auto Finan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9AE6CE8-6717-4DFE-8C3A-1931FF5B1F34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BAB0381-D338-4A76-B2F3-098D5B72F08A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-40" yWindow="2140" windowWidth="19200" windowHeight="11260" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3420" yWindow="3420" windowWidth="28800" windowHeight="15460" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BaoXiao_sheet" sheetId="1" r:id="rId1"/>
-    <sheet name="ChaiLv_sheet" sheetId="2" r:id="rId2"/>
+    <sheet name="LaoWu_Sheet" sheetId="3" r:id="rId2"/>
+    <sheet name="ChaiLv_sheet" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
+  <extLst>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="82">
   <si>
     <t>序号</t>
   </si>
@@ -760,8 +766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH5"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AA5" sqref="AA5"/>
+    <sheetView topLeftCell="M1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AD3" sqref="AD3:AH3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1127,11 +1133,90 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DE2B64F-43C1-4421-98D2-D306055DD271}">
+  <dimension ref="A1:O1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.90625" customWidth="1"/>
+    <col min="5" max="5" width="11.08984375" customWidth="1"/>
+    <col min="6" max="6" width="9" customWidth="1"/>
+    <col min="7" max="7" width="5.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.6328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.453125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.08984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AS4"/>
+  <dimension ref="A1:AX4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
-      <selection activeCell="AO8" sqref="AO8"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection sqref="A1:O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1163,7 +1248,7 @@
     <col min="45" max="45" width="13.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1299,8 +1384,23 @@
       <c r="AS1" s="3" t="s">
         <v>80</v>
       </c>
+      <c r="AT1" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="AU1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AV1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AW1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AX1" s="3" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1369,7 +1469,7 @@
       </c>
       <c r="AL2" s="3"/>
     </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1387,7 +1487,7 @@
       </c>
       <c r="AL3" s="3"/>
     </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1461,6 +1561,21 @@
         <v>1</v>
       </c>
       <c r="AS4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AT4" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AU4" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AX4" t="s">
         <v>7</v>
       </c>
     </row>

--- a/Auto Finan/报销信息.xlsx
+++ b/Auto Finan/报销信息.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FH\source\repos\Auto Finan\Auto Finan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BAB0381-D338-4A76-B2F3-098D5B72F08A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{952D449D-8364-4C5B-879C-71DAF31FCF65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="3420" windowWidth="28800" windowHeight="15460" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4570" yWindow="1670" windowWidth="28800" windowHeight="15460" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BaoXiao_sheet" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="98">
   <si>
     <t>序号</t>
   </si>
@@ -350,6 +350,70 @@
   </si>
   <si>
     <t>$$报销业务</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$$酬金业务</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>酬金性质</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>劳务费</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>酬金信息备注</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>劳务费类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$$评审费</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>发放事由</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>事由</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>发放标准</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>标准</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025-08-01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025-08-30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>人员类别</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -766,8 +830,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH5"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AD3" sqref="AD3:AH3"/>
+    <sheetView topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1134,10 +1198,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DE2B64F-43C1-4421-98D2-D306055DD271}">
-  <dimension ref="A1:O1"/>
+  <dimension ref="A1:Z2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="AC6" sqref="AC6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1155,9 +1219,15 @@
     <col min="13" max="13" width="9.6328125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="5.453125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="13.08984375" customWidth="1"/>
+    <col min="20" max="20" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.36328125" style="6" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.26953125" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1202,6 +1272,119 @@
       </c>
       <c r="O1" s="3" t="s">
         <v>17</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="X1" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y1" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>5130008</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="9">
+        <v>20</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2">
+        <v>10</v>
+      </c>
+      <c r="K2" t="s">
+        <v>82</v>
+      </c>
+      <c r="L2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2">
+        <v>2</v>
+      </c>
+      <c r="N2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q2">
+        <v>5</v>
+      </c>
+      <c r="R2" t="s">
+        <v>97</v>
+      </c>
+      <c r="S2" t="s">
+        <v>84</v>
+      </c>
+      <c r="T2" t="s">
+        <v>16</v>
+      </c>
+      <c r="U2" t="s">
+        <v>87</v>
+      </c>
+      <c r="V2" t="s">
+        <v>89</v>
+      </c>
+      <c r="W2" t="s">
+        <v>91</v>
+      </c>
+      <c r="X2" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y2" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1215,8 +1398,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AX4"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection sqref="A1:O1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>

--- a/Auto Finan/报销信息.xlsx
+++ b/Auto Finan/报销信息.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FH\source\repos\Auto Finan\Auto Finan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{952D449D-8364-4C5B-879C-71DAF31FCF65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3627208B-2478-4B1C-B132-0E91BE5C5E13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4570" yWindow="1670" windowWidth="28800" windowHeight="15460" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13320" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BaoXiao_sheet" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="107">
   <si>
     <t>序号</t>
   </si>
@@ -414,6 +414,40 @@
   </si>
   <si>
     <t>学生</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$点击</t>
+  </si>
+  <si>
+    <t>单笔录入按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工号/证件号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>单笔录入金额</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>单笔录入确定按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>340304200211110418</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>202422090508</t>
+  </si>
+  <si>
+    <t>提交发放清单按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>确定按钮</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -830,8 +864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH5"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1"/>
+    <sheetView topLeftCell="R1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AD3" sqref="AD3:AF3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1198,10 +1232,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DE2B64F-43C1-4421-98D2-D306055DD271}">
-  <dimension ref="A1:Z2"/>
+  <dimension ref="A1:AO3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="AC6" sqref="AC6"/>
+    <sheetView tabSelected="1" topLeftCell="AH1" workbookViewId="0">
+      <selection activeCell="AM3" sqref="AM3:AO3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1225,9 +1259,15 @@
     <col min="21" max="21" width="11.90625" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="11.36328125" style="6" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="10.26953125" style="6" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="20" style="6" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="18.6328125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="18.6328125" customWidth="1"/>
+    <col min="35" max="35" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="18.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1306,8 +1346,53 @@
       <c r="Z1" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="AA1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE1" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="AF1" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="AG1" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="AH1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ1" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="AK1" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="AL1" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="AM1" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="AN1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AO1" s="3" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1385,6 +1470,65 @@
       </c>
       <c r="Z2" t="s">
         <v>7</v>
+      </c>
+      <c r="AA2">
+        <v>5</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD2">
+        <v>5</v>
+      </c>
+      <c r="AE2" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="AF2">
+        <v>10</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AD3">
+        <v>5</v>
+      </c>
+      <c r="AE3" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AF3">
+        <v>10</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>98</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AM3" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AN3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/Auto Finan/报销信息.xlsx
+++ b/Auto Finan/报销信息.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FH\source\repos\Auto Finan\Auto Finan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3627208B-2478-4B1C-B132-0E91BE5C5E13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{758B0D72-E8AE-451C-9638-7DCA7ABD71E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13320" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="108">
   <si>
     <t>序号</t>
   </si>
@@ -448,6 +448,10 @@
   </si>
   <si>
     <t>确定按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>劳务预约时间</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1232,10 +1236,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DE2B64F-43C1-4421-98D2-D306055DD271}">
-  <dimension ref="A1:AO3"/>
+  <dimension ref="A1:AQ3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AH1" workbookViewId="0">
-      <selection activeCell="AM3" sqref="AM3:AO3"/>
+    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
+      <selection activeCell="AQ3" sqref="AQ3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1265,9 +1269,10 @@
     <col min="34" max="34" width="18.6328125" customWidth="1"/>
     <col min="35" max="35" width="11.90625" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="18.6328125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="14.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1383,7 +1388,7 @@
         <v>106</v>
       </c>
       <c r="AM1" s="7" t="s">
-        <v>34</v>
+        <v>107</v>
       </c>
       <c r="AN1" s="3" t="s">
         <v>35</v>
@@ -1391,8 +1396,14 @@
       <c r="AO1" s="3" t="s">
         <v>37</v>
       </c>
+      <c r="AP1" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="AQ1" s="3" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1493,7 +1504,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
       <c r="AD3">
         <v>5</v>
       </c>
@@ -1529,6 +1540,12 @@
       </c>
       <c r="AO3" t="s">
         <v>38</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Auto Finan/报销信息.xlsx
+++ b/Auto Finan/报销信息.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FH\source\repos\Auto Finan\Auto Finan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{758B0D72-E8AE-451C-9638-7DCA7ABD71E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A5AEA77-8E62-45D6-A495-F3FAED6A6ECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13320" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16620" yWindow="6140" windowWidth="28800" windowHeight="15460" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BaoXiao_sheet" sheetId="1" r:id="rId1"/>
     <sheet name="LaoWu_Sheet" sheetId="3" r:id="rId2"/>
-    <sheet name="ChaiLv_sheet" sheetId="2" r:id="rId3"/>
+    <sheet name="ZhuYan_Sheet" sheetId="4" r:id="rId3"/>
+    <sheet name="ChaiLv_sheet" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="113">
   <si>
     <t>序号</t>
   </si>
@@ -452,6 +453,25 @@
   </si>
   <si>
     <t>劳务预约时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖助学金按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖助学金项目号</t>
+  </si>
+  <si>
+    <t>选择授权项目按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">	M112023ZHCG0006</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>回车</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -462,7 +482,7 @@
   <numFmts count="1">
     <numFmt numFmtId="24" formatCode="\$#,##0_);[Red]\(\$#,##0\)"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -491,6 +511,15 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -500,7 +529,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -534,11 +563,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -562,6 +600,13 @@
     </xf>
     <xf numFmtId="24" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1238,8 +1283,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DE2B64F-43C1-4421-98D2-D306055DD271}">
   <dimension ref="A1:AQ3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
-      <selection activeCell="AQ3" sqref="AQ3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1556,6 +1601,101 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9591A37F-8224-4F05-9846-68F4C7AD68AE}">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="18.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.08984375" customWidth="1"/>
+    <col min="9" max="9" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.7265625" customWidth="1"/>
+    <col min="11" max="11" width="18.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>5130008</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2">
+        <v>5</v>
+      </c>
+      <c r="I2" t="s">
+        <v>111</v>
+      </c>
+      <c r="J2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AX4"/>
   <sheetViews>

--- a/Auto Finan/报销信息.xlsx
+++ b/Auto Finan/报销信息.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FH\source\repos\Auto Finan\Auto Finan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A5AEA77-8E62-45D6-A495-F3FAED6A6ECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DD0DE63-42BC-4017-A95B-C9549E793A6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16620" yWindow="6140" windowWidth="28800" windowHeight="15460" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18280" yWindow="5370" windowWidth="28800" windowHeight="15460" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BaoXiao_sheet" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="118">
   <si>
     <t>序号</t>
   </si>
@@ -460,18 +460,38 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>选择授权项目按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">	M112023ZHCG0006</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>奖助学金项目号</t>
-  </si>
-  <si>
-    <t>选择授权项目按钮</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">	M112023ZHCG0006</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>回车</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖助学金起始日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖助学金终止日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025-08-02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖助学金性质</t>
+  </si>
+  <si>
+    <t>导师助研助学金</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -576,7 +596,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -607,6 +627,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1602,10 +1625,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9591A37F-8224-4F05-9846-68F4C7AD68AE}">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1614,11 +1637,14 @@
     <col min="7" max="7" width="14.08984375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.08984375" customWidth="1"/>
     <col min="9" max="9" width="15.7265625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.7265625" customWidth="1"/>
+    <col min="10" max="10" width="5.453125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18.6328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.453125" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="18.6328125" style="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1644,16 +1670,28 @@
         <v>59</v>
       </c>
       <c r="I1" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="K1" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="L1" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="M1" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="K1" s="11" t="s">
-        <v>110</v>
+      <c r="N1" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>116</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1679,13 +1717,25 @@
         <v>5</v>
       </c>
       <c r="I2" t="s">
-        <v>111</v>
-      </c>
-      <c r="J2" t="s">
-        <v>7</v>
+        <v>110</v>
+      </c>
+      <c r="J2">
+        <v>3</v>
       </c>
       <c r="K2" t="s">
         <v>7</v>
+      </c>
+      <c r="L2">
+        <v>5</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="O2" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/Auto Finan/报销信息.xlsx
+++ b/Auto Finan/报销信息.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FH\source\repos\Auto Finan\Auto Finan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DD0DE63-42BC-4017-A95B-C9549E793A6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59B202BC-F107-46BA-B393-0A9642982BDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18280" yWindow="5370" windowWidth="28800" windowHeight="15460" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6740" yWindow="2340" windowWidth="28800" windowHeight="15460" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BaoXiao_sheet" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="122">
   <si>
     <t>序号</t>
   </si>
@@ -492,6 +492,22 @@
   </si>
   <si>
     <t>导师助研助学金</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择发放学生按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖助学金工号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>选中按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>确定返回按钮</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -596,7 +612,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -632,6 +648,7 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1625,10 +1642,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9591A37F-8224-4F05-9846-68F4C7AD68AE}">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:V3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1642,9 +1659,15 @@
     <col min="12" max="12" width="5.453125" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="18.6328125" style="6" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.6328125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.54296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.54296875" style="4" customWidth="1"/>
+    <col min="21" max="21" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1690,8 +1713,29 @@
       <c r="O1" s="12" t="s">
         <v>116</v>
       </c>
+      <c r="P1" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q1" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="R1" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="S1" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="T1" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="U1" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="V1" s="12" t="s">
+        <v>121</v>
+      </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1736,6 +1780,38 @@
       </c>
       <c r="O2" t="s">
         <v>117</v>
+      </c>
+      <c r="P2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R2" s="4">
+        <v>202422090507</v>
+      </c>
+      <c r="S2" s="4">
+        <v>1</v>
+      </c>
+      <c r="T2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="R3" s="4">
+        <v>202422090506</v>
+      </c>
+      <c r="S3" s="4">
+        <v>1</v>
+      </c>
+      <c r="T3" t="s">
+        <v>7</v>
+      </c>
+      <c r="U3" t="s">
+        <v>25</v>
+      </c>
+      <c r="V3" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Auto Finan/报销信息.xlsx
+++ b/Auto Finan/报销信息.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FH\source\repos\Auto Finan\Auto Finan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59B202BC-F107-46BA-B393-0A9642982BDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{847FAF7A-4BB9-4F13-BE63-3204666FFC70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6740" yWindow="2340" windowWidth="28800" windowHeight="15460" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6740" yWindow="2340" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BaoXiao_sheet" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="120">
   <si>
     <t>序号</t>
   </si>
@@ -184,13 +184,6 @@
   </si>
   <si>
     <t>返回按钮</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人转卡</t>
-  </si>
-  <si>
-    <t>我是第二条条备注</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -953,8 +946,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH5"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AD3" sqref="AD3:AF3"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -992,13 +985,13 @@
         <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>10</v>
@@ -1007,10 +1000,10 @@
         <v>9</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="L1" s="3" t="s">
         <v>11</v>
@@ -1046,7 +1039,7 @@
         <v>29</v>
       </c>
       <c r="W1" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="X1" s="3" t="s">
         <v>26</v>
@@ -1058,7 +1051,7 @@
         <v>28</v>
       </c>
       <c r="AA1" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AB1" s="3" t="s">
         <v>31</v>
@@ -1076,7 +1069,7 @@
         <v>37</v>
       </c>
       <c r="AG1" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AH1" s="3" t="s">
         <v>39</v>
@@ -1114,7 +1107,7 @@
         <v>10</v>
       </c>
       <c r="K2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="L2" t="s">
         <v>12</v>
@@ -1135,7 +1128,7 @@
         <v>7</v>
       </c>
       <c r="R2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="S2">
         <v>100</v>
@@ -1194,7 +1187,7 @@
         <v>7</v>
       </c>
       <c r="AD3" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AE3" s="5" t="s">
         <v>36</v>
@@ -1210,107 +1203,12 @@
       </c>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="H4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" t="s">
-        <v>7</v>
-      </c>
-      <c r="L4" t="s">
-        <v>12</v>
-      </c>
-      <c r="M4">
-        <v>1</v>
-      </c>
-      <c r="N4" t="s">
-        <v>40</v>
-      </c>
-      <c r="O4" t="s">
-        <v>41</v>
-      </c>
-      <c r="P4" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>7</v>
-      </c>
-      <c r="R4" t="s">
-        <v>42</v>
-      </c>
-      <c r="S4">
-        <v>200</v>
-      </c>
-      <c r="T4" t="s">
-        <v>7</v>
-      </c>
-      <c r="U4" t="s">
-        <v>25</v>
-      </c>
-      <c r="V4" s="4">
-        <v>5130008</v>
-      </c>
-      <c r="W4" s="4">
-        <v>3</v>
-      </c>
-      <c r="X4" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y4">
-        <v>100</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA4">
-        <v>3</v>
-      </c>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4"/>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="V5" s="4">
-        <v>202422090507</v>
-      </c>
-      <c r="W5" s="4">
-        <v>3</v>
-      </c>
-      <c r="X5" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y5">
-        <v>100</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA5">
-        <v>3</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>7</v>
-      </c>
-      <c r="AD5" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>38</v>
-      </c>
-      <c r="AG5" t="s">
-        <v>7</v>
-      </c>
-      <c r="AH5" t="s">
-        <v>7</v>
-      </c>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1371,13 +1269,13 @@
         <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>10</v>
@@ -1386,10 +1284,10 @@
         <v>9</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="L1" s="3" t="s">
         <v>11</v>
@@ -1407,55 +1305,55 @@
         <v>22</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="S1" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="T1" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="T1" s="3" t="s">
-        <v>85</v>
-      </c>
       <c r="U1" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="V1" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="X1" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="X1" s="7" t="s">
-        <v>92</v>
-      </c>
       <c r="Y1" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="Z1" s="3" t="s">
         <v>23</v>
       </c>
       <c r="AA1" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AB1" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AC1" s="3" t="s">
         <v>24</v>
       </c>
       <c r="AD1" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AE1" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF1" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="AG1" s="3" t="s">
         <v>100</v>
-      </c>
-      <c r="AF1" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="AG1" s="3" t="s">
-        <v>102</v>
       </c>
       <c r="AH1" s="3" t="s">
         <v>31</v>
@@ -1464,16 +1362,16 @@
         <v>39</v>
       </c>
       <c r="AJ1" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="AK1" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL1" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AM1" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="AK1" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="AL1" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="AM1" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="AN1" s="3" t="s">
         <v>35</v>
@@ -1482,7 +1380,7 @@
         <v>37</v>
       </c>
       <c r="AP1" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="AQ1" s="3" t="s">
         <v>39</v>
@@ -1520,7 +1418,7 @@
         <v>10</v>
       </c>
       <c r="K2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="L2" t="s">
         <v>12</v>
@@ -1541,28 +1439,28 @@
         <v>5</v>
       </c>
       <c r="R2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="S2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="T2" t="s">
         <v>16</v>
       </c>
       <c r="U2" t="s">
+        <v>85</v>
+      </c>
+      <c r="V2" t="s">
         <v>87</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>89</v>
       </c>
-      <c r="W2" t="s">
-        <v>91</v>
-      </c>
       <c r="X2" s="6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="Y2" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="Z2" t="s">
         <v>7</v>
@@ -1580,7 +1478,7 @@
         <v>5</v>
       </c>
       <c r="AE2" s="6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AF2">
         <v>10</v>
@@ -1594,7 +1492,7 @@
         <v>5</v>
       </c>
       <c r="AE3" s="6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="AF3">
         <v>10</v>
@@ -1606,7 +1504,7 @@
         <v>25</v>
       </c>
       <c r="AI3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AJ3" t="s">
         <v>7</v>
@@ -1618,7 +1516,7 @@
         <v>7</v>
       </c>
       <c r="AM3" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AN3" s="5" t="s">
         <v>36</v>
@@ -1644,7 +1542,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9591A37F-8224-4F05-9846-68F4C7AD68AE}">
   <dimension ref="A1:V3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+    <sheetView topLeftCell="L1" workbookViewId="0">
       <selection activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
@@ -1681,58 +1579,58 @@
         <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I1" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="N1" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="J1" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="K1" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="L1" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="M1" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="N1" s="14" t="s">
-        <v>113</v>
-      </c>
       <c r="O1" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="P1" s="12" t="s">
         <v>116</v>
-      </c>
-      <c r="P1" s="12" t="s">
-        <v>118</v>
       </c>
       <c r="Q1" s="12" t="s">
         <v>24</v>
       </c>
       <c r="R1" s="15" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="S1" s="15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="T1" s="12" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="U1" s="12" t="s">
         <v>31</v>
       </c>
       <c r="V1" s="12" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
@@ -1761,7 +1659,7 @@
         <v>5</v>
       </c>
       <c r="I2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J2">
         <v>3</v>
@@ -1773,13 +1671,13 @@
         <v>5</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="N2" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="O2" t="s">
         <v>115</v>
-      </c>
-      <c r="O2" t="s">
-        <v>117</v>
       </c>
       <c r="P2" t="s">
         <v>7</v>
@@ -1872,13 +1770,13 @@
         <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>10</v>
@@ -1887,10 +1785,10 @@
         <v>9</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="L1" s="3" t="s">
         <v>11</v>
@@ -1908,7 +1806,7 @@
         <v>22</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>24</v>
@@ -1917,13 +1815,13 @@
         <v>1</v>
       </c>
       <c r="T1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>2</v>
@@ -1932,67 +1830,67 @@
         <v>24</v>
       </c>
       <c r="Y1" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA1" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AB1" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="AA1" s="7" t="s">
+      <c r="AC1" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="AB1" s="7" t="s">
+      <c r="AD1" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AE1" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AF1" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AG1" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AH1" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AI1" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="AH1" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="AI1" s="3" t="s">
-        <v>70</v>
       </c>
       <c r="AJ1" s="3" t="s">
         <v>31</v>
       </c>
       <c r="AK1" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AL1" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AM1" s="3" t="s">
         <v>24</v>
       </c>
       <c r="AN1" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO1" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP1" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="AO1" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="AP1" s="3" t="s">
-        <v>78</v>
-      </c>
       <c r="AQ1" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AR1" s="3" t="s">
         <v>31</v>
       </c>
       <c r="AS1" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AT1" s="7" t="s">
         <v>34</v>
@@ -2004,7 +1902,7 @@
         <v>37</v>
       </c>
       <c r="AW1" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AX1" s="3" t="s">
         <v>39</v>
@@ -2042,7 +1940,7 @@
         <v>10</v>
       </c>
       <c r="K2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L2" t="s">
         <v>12</v>
@@ -2066,16 +1964,16 @@
         <v>1</v>
       </c>
       <c r="S2" t="s">
+        <v>46</v>
+      </c>
+      <c r="T2" t="s">
+        <v>47</v>
+      </c>
+      <c r="U2" t="s">
         <v>48</v>
       </c>
-      <c r="T2" t="s">
+      <c r="V2" t="s">
         <v>49</v>
-      </c>
-      <c r="U2" t="s">
-        <v>50</v>
-      </c>
-      <c r="V2" t="s">
-        <v>51</v>
       </c>
       <c r="AL2" s="3"/>
     </row>
@@ -2084,16 +1982,16 @@
         <v>1</v>
       </c>
       <c r="S3" t="s">
+        <v>50</v>
+      </c>
+      <c r="T3" t="s">
+        <v>51</v>
+      </c>
+      <c r="U3" t="s">
+        <v>48</v>
+      </c>
+      <c r="V3" t="s">
         <v>52</v>
-      </c>
-      <c r="T3" t="s">
-        <v>53</v>
-      </c>
-      <c r="U3" t="s">
-        <v>50</v>
-      </c>
-      <c r="V3" t="s">
-        <v>54</v>
       </c>
       <c r="AL3" s="3"/>
     </row>
@@ -2102,16 +2000,16 @@
         <v>1</v>
       </c>
       <c r="S4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="T4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="U4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="V4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="W4">
         <v>1</v>
@@ -2120,16 +2018,16 @@
         <v>1</v>
       </c>
       <c r="Y4" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA4" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB4" s="6" t="s">
         <v>71</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>71</v>
-      </c>
-      <c r="AA4" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="AB4" s="6" t="s">
-        <v>73</v>
       </c>
       <c r="AC4">
         <v>1000</v>
@@ -2138,10 +2036,10 @@
         <v>500</v>
       </c>
       <c r="AH4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AI4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AJ4">
         <v>1</v>
@@ -2174,7 +2072,7 @@
         <v>7</v>
       </c>
       <c r="AT4" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AU4" s="5" t="s">
         <v>36</v>

--- a/Auto Finan/报销信息.xlsx
+++ b/Auto Finan/报销信息.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FH\source\repos\Auto Finan\Auto Finan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{847FAF7A-4BB9-4F13-BE63-3204666FFC70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{619F1CB9-9568-4ECB-A819-49D3A614A7F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6740" yWindow="2340" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BaoXiao_sheet" sheetId="1" r:id="rId1"/>
@@ -191,316 +191,316 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2025-08-28</t>
+    <t>人员类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>职称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>匡平</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>院士</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>电子科技大学</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>研究员</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈驰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他人员</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>研究生</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>米糕</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小猫</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择业务大类</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$$公务出差旅费</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>等待</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>省份</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>出差地点</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>起</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>迄</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞机票</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>火车票</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>汽车票</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他交通费</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>住宿费</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否安排伙食</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否安排交通</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京市</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025-06-01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025-06-03</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>安排</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下一步按钮4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>差旅转卡工号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人差旅金额</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>差旅卡号尾号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加内容按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下一步按钮5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$$报销业务</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$$酬金业务</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>酬金性质</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>劳务费</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>酬金信息备注</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>劳务费类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$$评审费</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>发放事由</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>事由</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>发放标准</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>标准</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025-08-01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025-08-30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>人员类别</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$点击</t>
+  </si>
+  <si>
+    <t>单笔录入按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工号/证件号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>单笔录入金额</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>单笔录入确定按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>340304200211110418</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>202422090508</t>
+  </si>
+  <si>
+    <t>提交发放清单按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>确定按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>劳务预约时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖助学金按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择授权项目按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">	M112023ZHCG0006</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖助学金项目号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖助学金起始日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖助学金终止日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025-08-02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖助学金性质</t>
+  </si>
+  <si>
+    <t>导师助研助学金</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择发放学生按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖助学金工号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>选中按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>确定返回按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025-09-28</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>打印确认单按钮</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>人员类型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>单位</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>职称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>匡平</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>院士</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>电子科技大学</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>研究员</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>陈驰</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他人员</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>研究生</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>米糕</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>小猫</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>选择业务大类</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>$$公务出差旅费</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>等待</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>省份</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>出差地点</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>起</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>迄</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>飞机票</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>火车票</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>汽车票</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他交通费</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>住宿费</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否安排伙食</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否安排交通</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>北京市</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2025-06-01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2025-06-03</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>安排</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>下一步按钮4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>差旅转卡工号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人差旅金额</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>差旅卡号尾号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加内容按钮</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>下一步按钮5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>$$报销业务</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>$$酬金业务</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>酬金性质</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>劳务费</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>酬金信息备注</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>劳务费类型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>$$评审费</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>发放事由</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>事由</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>发放标准</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>标准</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>开始时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>结束时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2025-08-01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2025-08-30</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>人员类别</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>学生</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>$点击</t>
-  </si>
-  <si>
-    <t>单笔录入按钮</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>工号/证件号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>单笔录入金额</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>单笔录入确定按钮</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>340304200211110418</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>202422090508</t>
-  </si>
-  <si>
-    <t>提交发放清单按钮</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>确定按钮</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>劳务预约时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>奖助学金按钮</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>选择授权项目按钮</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">	M112023ZHCG0006</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>奖助学金项目号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>奖助学金起始日期</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>奖助学金终止日期</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2025-08-02</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2025-08-15</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>奖助学金性质</t>
-  </si>
-  <si>
-    <t>导师助研助学金</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>选择发放学生按钮</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>奖助学金工号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>选中按钮</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>确定返回按钮</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -946,8 +946,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AD3" sqref="AD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -968,7 +968,6 @@
     <col min="29" max="29" width="13.08984375" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="14.54296875" style="6" customWidth="1"/>
     <col min="31" max="31" width="11.90625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="16.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
@@ -985,13 +984,13 @@
         <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>10</v>
@@ -1000,10 +999,10 @@
         <v>9</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L1" s="3" t="s">
         <v>11</v>
@@ -1039,7 +1038,7 @@
         <v>29</v>
       </c>
       <c r="W1" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="X1" s="3" t="s">
         <v>26</v>
@@ -1051,7 +1050,7 @@
         <v>28</v>
       </c>
       <c r="AA1" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AB1" s="3" t="s">
         <v>31</v>
@@ -1069,7 +1068,7 @@
         <v>37</v>
       </c>
       <c r="AG1" s="3" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="AH1" s="3" t="s">
         <v>39</v>
@@ -1107,7 +1106,7 @@
         <v>10</v>
       </c>
       <c r="K2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="L2" t="s">
         <v>12</v>
@@ -1187,7 +1186,7 @@
         <v>7</v>
       </c>
       <c r="AD3" s="6" t="s">
-        <v>41</v>
+        <v>118</v>
       </c>
       <c r="AE3" s="5" t="s">
         <v>36</v>
@@ -1195,8 +1194,8 @@
       <c r="AF3" t="s">
         <v>38</v>
       </c>
-      <c r="AG3" t="s">
-        <v>7</v>
+      <c r="AG3">
+        <v>5</v>
       </c>
       <c r="AH3" t="s">
         <v>7</v>
@@ -1221,8 +1220,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DE2B64F-43C1-4421-98D2-D306055DD271}">
   <dimension ref="A1:AQ3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F2"/>
+    <sheetView topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="AM3" sqref="AM3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1253,6 +1252,7 @@
     <col min="35" max="35" width="11.90625" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="18.6328125" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="9.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:43" x14ac:dyDescent="0.25">
@@ -1269,13 +1269,13 @@
         <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>10</v>
@@ -1284,10 +1284,10 @@
         <v>9</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L1" s="3" t="s">
         <v>11</v>
@@ -1305,55 +1305,55 @@
         <v>22</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="S1" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="T1" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="T1" s="3" t="s">
-        <v>83</v>
-      </c>
       <c r="U1" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="V1" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="X1" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="X1" s="7" t="s">
-        <v>90</v>
-      </c>
       <c r="Y1" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="Z1" s="3" t="s">
         <v>23</v>
       </c>
       <c r="AA1" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AB1" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AC1" s="3" t="s">
         <v>24</v>
       </c>
       <c r="AD1" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AE1" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF1" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG1" s="3" t="s">
         <v>98</v>
-      </c>
-      <c r="AF1" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="AG1" s="3" t="s">
-        <v>100</v>
       </c>
       <c r="AH1" s="3" t="s">
         <v>31</v>
@@ -1362,16 +1362,16 @@
         <v>39</v>
       </c>
       <c r="AJ1" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="AK1" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="AL1" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="AM1" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="AK1" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="AL1" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="AM1" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="AN1" s="3" t="s">
         <v>35</v>
@@ -1380,7 +1380,7 @@
         <v>37</v>
       </c>
       <c r="AP1" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="AQ1" s="3" t="s">
         <v>39</v>
@@ -1418,7 +1418,7 @@
         <v>10</v>
       </c>
       <c r="K2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="L2" t="s">
         <v>12</v>
@@ -1439,28 +1439,28 @@
         <v>5</v>
       </c>
       <c r="R2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="S2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="T2" t="s">
         <v>16</v>
       </c>
       <c r="U2" t="s">
+        <v>83</v>
+      </c>
+      <c r="V2" t="s">
         <v>85</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>87</v>
       </c>
-      <c r="W2" t="s">
-        <v>89</v>
-      </c>
       <c r="X2" s="6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="Y2" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="Z2" t="s">
         <v>7</v>
@@ -1478,7 +1478,7 @@
         <v>5</v>
       </c>
       <c r="AE2" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="AF2">
         <v>10</v>
@@ -1492,7 +1492,7 @@
         <v>5</v>
       </c>
       <c r="AE3" s="6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AF3">
         <v>10</v>
@@ -1504,7 +1504,7 @@
         <v>25</v>
       </c>
       <c r="AI3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AJ3" t="s">
         <v>7</v>
@@ -1516,7 +1516,7 @@
         <v>7</v>
       </c>
       <c r="AM3" s="6" t="s">
-        <v>41</v>
+        <v>118</v>
       </c>
       <c r="AN3" s="5" t="s">
         <v>36</v>
@@ -1543,7 +1543,7 @@
   <dimension ref="A1:V3"/>
   <sheetViews>
     <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="S3" sqref="S3"/>
+      <selection activeCell="V1" sqref="V1:V1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1579,58 +1579,58 @@
         <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I1" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="N1" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="J1" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="K1" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="L1" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="M1" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="N1" s="14" t="s">
-        <v>111</v>
-      </c>
       <c r="O1" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="P1" s="12" t="s">
         <v>114</v>
-      </c>
-      <c r="P1" s="12" t="s">
-        <v>116</v>
       </c>
       <c r="Q1" s="12" t="s">
         <v>24</v>
       </c>
       <c r="R1" s="15" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="S1" s="15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="T1" s="12" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="U1" s="12" t="s">
         <v>31</v>
       </c>
       <c r="V1" s="12" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
@@ -1659,7 +1659,7 @@
         <v>5</v>
       </c>
       <c r="I2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J2">
         <v>3</v>
@@ -1671,13 +1671,13 @@
         <v>5</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="N2" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="O2" t="s">
         <v>113</v>
-      </c>
-      <c r="O2" t="s">
-        <v>115</v>
       </c>
       <c r="P2" t="s">
         <v>7</v>
@@ -1721,10 +1721,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AX4"/>
+  <dimension ref="A1:AY4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:P2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1754,9 +1754,11 @@
     <col min="42" max="43" width="14.08984375" bestFit="1" customWidth="1"/>
     <col min="44" max="44" width="11.90625" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="16.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1770,13 +1772,13 @@
         <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>10</v>
@@ -1785,10 +1787,10 @@
         <v>9</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L1" s="3" t="s">
         <v>11</v>
@@ -1806,7 +1808,7 @@
         <v>22</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>24</v>
@@ -1815,13 +1817,13 @@
         <v>1</v>
       </c>
       <c r="T1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>2</v>
@@ -1830,67 +1832,67 @@
         <v>24</v>
       </c>
       <c r="Y1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA1" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AB1" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="AA1" s="7" t="s">
+      <c r="AC1" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="AB1" s="7" t="s">
+      <c r="AD1" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AE1" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AF1" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AG1" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AH1" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AI1" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="AH1" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="AI1" s="3" t="s">
-        <v>68</v>
       </c>
       <c r="AJ1" s="3" t="s">
         <v>31</v>
       </c>
       <c r="AK1" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AL1" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AM1" s="3" t="s">
         <v>24</v>
       </c>
       <c r="AN1" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO1" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP1" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="AO1" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="AP1" s="3" t="s">
-        <v>76</v>
-      </c>
       <c r="AQ1" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AR1" s="3" t="s">
         <v>31</v>
       </c>
       <c r="AS1" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AT1" s="7" t="s">
         <v>34</v>
@@ -1902,13 +1904,16 @@
         <v>37</v>
       </c>
       <c r="AW1" s="3" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="AX1" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="AY1" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1928,7 +1933,7 @@
         <v>7</v>
       </c>
       <c r="G2" s="9">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H2" t="s">
         <v>7</v>
@@ -1940,7 +1945,7 @@
         <v>10</v>
       </c>
       <c r="K2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L2" t="s">
         <v>12</v>
@@ -1958,58 +1963,58 @@
         <v>7</v>
       </c>
       <c r="Q2" s="9">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="R2">
         <v>1</v>
       </c>
       <c r="S2" t="s">
+        <v>44</v>
+      </c>
+      <c r="T2" t="s">
+        <v>45</v>
+      </c>
+      <c r="U2" t="s">
         <v>46</v>
       </c>
-      <c r="T2" t="s">
+      <c r="V2" t="s">
         <v>47</v>
-      </c>
-      <c r="U2" t="s">
-        <v>48</v>
-      </c>
-      <c r="V2" t="s">
-        <v>49</v>
       </c>
       <c r="AL2" s="3"/>
     </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="S3" t="s">
+        <v>48</v>
+      </c>
+      <c r="T3" t="s">
+        <v>49</v>
+      </c>
+      <c r="U3" t="s">
+        <v>46</v>
+      </c>
+      <c r="V3" t="s">
         <v>50</v>
-      </c>
-      <c r="T3" t="s">
-        <v>51</v>
-      </c>
-      <c r="U3" t="s">
-        <v>48</v>
-      </c>
-      <c r="V3" t="s">
-        <v>52</v>
       </c>
       <c r="AL3" s="3"/>
     </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="S4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="T4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="U4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="V4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="W4">
         <v>1</v>
@@ -2018,16 +2023,16 @@
         <v>1</v>
       </c>
       <c r="Y4" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA4" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB4" s="6" t="s">
         <v>69</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>69</v>
-      </c>
-      <c r="AA4" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="AB4" s="6" t="s">
-        <v>71</v>
       </c>
       <c r="AC4">
         <v>1000</v>
@@ -2036,10 +2041,10 @@
         <v>500</v>
       </c>
       <c r="AH4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="AI4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="AJ4">
         <v>1</v>
@@ -2072,7 +2077,7 @@
         <v>7</v>
       </c>
       <c r="AT4" s="6" t="s">
-        <v>41</v>
+        <v>118</v>
       </c>
       <c r="AU4" s="5" t="s">
         <v>36</v>
@@ -2080,15 +2085,19 @@
       <c r="AV4" t="s">
         <v>38</v>
       </c>
-      <c r="AW4" t="s">
-        <v>7</v>
+      <c r="AW4">
+        <v>3</v>
       </c>
       <c r="AX4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AY4" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Auto Finan/报销信息.xlsx
+++ b/Auto Finan/报销信息.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FH\source\repos\Auto Finan\Auto Finan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{619F1CB9-9568-4ECB-A819-49D3A614A7F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98E39D0A-2373-494D-8113-5577C5571A74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="121">
   <si>
     <t>序号</t>
   </si>
@@ -501,6 +501,10 @@
   </si>
   <si>
     <t>打印确认单按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>?PDF路径</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1721,10 +1725,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AY4"/>
+  <dimension ref="A1:AZ4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="AX13" sqref="AX13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1758,7 +1762,7 @@
     <col min="50" max="50" width="16.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1912,8 +1916,11 @@
       <c r="AY1" s="3" t="s">
         <v>39</v>
       </c>
+      <c r="AZ1" s="3" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="2" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1982,7 +1989,7 @@
       </c>
       <c r="AL2" s="3"/>
     </row>
-    <row r="3" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2000,7 +2007,7 @@
       </c>
       <c r="AL3" s="3"/>
     </row>
-    <row r="4" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
